--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H2">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I2">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J2">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N2">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O2">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P2">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q2">
-        <v>0.01547303292666667</v>
+        <v>0.0009139564111111112</v>
       </c>
       <c r="R2">
-        <v>0.13925729634</v>
+        <v>0.0082256077</v>
       </c>
       <c r="S2">
-        <v>0.0009220578629358769</v>
+        <v>5.011634829860715E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009220578629358766</v>
+        <v>5.011634829860714E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H3">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.10861</v>
       </c>
       <c r="O3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q3">
-        <v>5.090451114813333</v>
+        <v>6.585328385737778</v>
       </c>
       <c r="R3">
-        <v>45.81406003332</v>
+        <v>59.26795547164</v>
       </c>
       <c r="S3">
-        <v>0.3033465060502193</v>
+        <v>0.3611032288061889</v>
       </c>
       <c r="T3">
-        <v>0.3033465060502193</v>
+        <v>0.3611032288061888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H4">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.392475</v>
       </c>
       <c r="O4">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P4">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q4">
-        <v>0.0302210983</v>
+        <v>0.03909591743333334</v>
       </c>
       <c r="R4">
-        <v>0.2719898847</v>
+        <v>0.3518632569</v>
       </c>
       <c r="S4">
-        <v>0.001800913980222241</v>
+        <v>0.002143805318637149</v>
       </c>
       <c r="T4">
-        <v>0.001800913980222241</v>
+        <v>0.002143805318637148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.155575</v>
       </c>
       <c r="I5">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J5">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N5">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O5">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P5">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q5">
-        <v>0.02580077981944445</v>
+        <v>0.001178044513888889</v>
       </c>
       <c r="R5">
-        <v>0.232207018375</v>
+        <v>0.010602400625</v>
       </c>
       <c r="S5">
-        <v>0.001537501536715275</v>
+        <v>6.459748895195549E-05</v>
       </c>
       <c r="T5">
-        <v>0.001537501536715274</v>
+        <v>6.459748895195549E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.155575</v>
       </c>
       <c r="I6">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J6">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>66.10861</v>
       </c>
       <c r="O6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q6">
         <v>8.488161888972222</v>
@@ -818,10 +818,10 @@
         <v>76.39345700075</v>
       </c>
       <c r="S6">
-        <v>0.505820445719529</v>
+        <v>0.4654441639350555</v>
       </c>
       <c r="T6">
-        <v>0.5058204457195289</v>
+        <v>0.4654441639350555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.155575</v>
       </c>
       <c r="I7">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J7">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.392475</v>
       </c>
       <c r="O7">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P7">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q7">
         <v>0.05039269979166666</v>
@@ -880,10 +880,10 @@
         <v>0.453534298125</v>
       </c>
       <c r="S7">
-        <v>0.00300296556581317</v>
+        <v>0.002763258798519753</v>
       </c>
       <c r="T7">
-        <v>0.003002965565813169</v>
+        <v>0.002763258798519753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.415644</v>
       </c>
       <c r="I8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N8">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O8">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P8">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q8">
-        <v>0.009280175953333332</v>
+        <v>0.0004237259666666667</v>
       </c>
       <c r="R8">
-        <v>0.08352158358</v>
+        <v>0.0038135337</v>
       </c>
       <c r="S8">
-        <v>0.0005530175788905814</v>
+        <v>2.323480405680859E-05</v>
       </c>
       <c r="T8">
-        <v>0.0005530175788905812</v>
+        <v>2.323480405680859E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.415644</v>
       </c>
       <c r="I9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>66.10861</v>
       </c>
       <c r="O9">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P9">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q9">
-        <v>3.053071899426666</v>
+        <v>3.053071899426667</v>
       </c>
       <c r="R9">
         <v>27.47764709484</v>
       </c>
       <c r="S9">
-        <v>0.1819364674215415</v>
+        <v>0.167413689353458</v>
       </c>
       <c r="T9">
-        <v>0.1819364674215415</v>
+        <v>0.167413689353458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.415644</v>
       </c>
       <c r="I10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.392475</v>
       </c>
       <c r="O10">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P10">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q10">
         <v>0.0181255421</v>
@@ -1066,10 +1066,10 @@
         <v>0.1631298789</v>
       </c>
       <c r="S10">
-        <v>0.001080124284132877</v>
+        <v>0.0009939051468333463</v>
       </c>
       <c r="T10">
-        <v>0.001080124284132877</v>
+        <v>0.0009939051468333463</v>
       </c>
     </row>
   </sheetData>
